--- a/public/static_files/demo-import.xlsx
+++ b/public/static_files/demo-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damodar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal-Projects\gurukulca\public\static_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D96587-6E36-4B6D-A2B8-1A01F344959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E617431-CB9F-485A-A482-1114FC3F4706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{590FF60C-B8C6-4D82-84C8-0F513FEB681B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -46,85 +46,40 @@
     <t>email</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>cod</t>
-  </si>
-  <si>
-    <t>delivery_charge</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Can Open</t>
-  </si>
-  <si>
-    <t>Can Not Open</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>name 1</t>
-  </si>
-  <si>
-    <t>abc@def.com</t>
-  </si>
-  <si>
-    <t>gaighat1</t>
-  </si>
-  <si>
-    <t>product 1</t>
-  </si>
-  <si>
-    <t>Fragile</t>
-  </si>
-  <si>
-    <t>name 2</t>
-  </si>
-  <si>
-    <t>name 3</t>
-  </si>
-  <si>
-    <t>name 4</t>
-  </si>
-  <si>
-    <t>gaighat2</t>
-  </si>
-  <si>
-    <t>gaighat3</t>
-  </si>
-  <si>
-    <t>gaighat4</t>
-  </si>
-  <si>
-    <t>product 2</t>
-  </si>
-  <si>
-    <t>product 3</t>
-  </si>
-  <si>
-    <t>product 4</t>
-  </si>
-  <si>
-    <t>note1</t>
-  </si>
-  <si>
-    <t>note3</t>
-  </si>
-  <si>
-    <t>Non-Fragile</t>
-  </si>
-  <si>
-    <t>Do not change headings of any column otherwise the import will not work. Choose type and instruction from dropdown</t>
-  </si>
-  <si>
-    <t>package_type</t>
-  </si>
-  <si>
-    <t>delivery_instruction</t>
+    <t>parent_phone</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>student 2</t>
+  </si>
+  <si>
+    <t>student 4</t>
+  </si>
+  <si>
+    <t>student 3</t>
+  </si>
+  <si>
+    <t>s1@gmail.com</t>
+  </si>
+  <si>
+    <t>s2@gmail.com</t>
+  </si>
+  <si>
+    <t>s3@gmail.com</t>
+  </si>
+  <si>
+    <t>s4@gmail.com</t>
+  </si>
+  <si>
+    <t>CAP-I DEC 2022 Bagbazar Sec B</t>
+  </si>
+  <si>
+    <t>Do not change headings of any column otherwise the import will not work.  (Batch Should be Exactly Same Name)</t>
   </si>
 </sst>
 </file>
@@ -204,17 +159,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,16 +489,15 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
@@ -551,378 +506,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="C3" s="2">
+        <v>9876546541</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9876546541</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>9825710275</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="2">
+        <v>9879879879</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9879879879</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="2">
+        <v>9865656565</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9865656565</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C6" s="2">
+        <v>9863636352</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9863636352</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>9825710275</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9825710275</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>110</v>
-      </c>
-      <c r="I5" s="5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9825710275</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>104</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -938,10 +847,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{DF85029C-EEE3-4E55-B6CE-D3BFD908A68D}"/>
-    <hyperlink ref="C4:C6" r:id="rId2" display="abc@def.com" xr:uid="{56E7BF56-79B9-48B7-8775-11F1AB95C9AA}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C8DD3596-5404-4502-8BF4-0EF9A5991328}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{AA6FD9CC-CEC9-467E-980D-58E283A0DA3A}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{FC5FB472-0263-4CDE-A1D5-A51CDEAF7C05}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{2D63E956-C46C-41E3-B67C-468B763918AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>